--- a/data/pca/factorExposure/factorExposure_2012-11-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-07.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001698505693128396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.002202980250605837</v>
+      </c>
+      <c r="C2">
+        <v>0.02963747549889216</v>
+      </c>
+      <c r="D2">
+        <v>0.004301081162007618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001180188748024241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00700539811171495</v>
+      </c>
+      <c r="C4">
+        <v>0.08325282181301698</v>
+      </c>
+      <c r="D4">
+        <v>0.07478981309787266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003426718213108398</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01460744001964666</v>
+      </c>
+      <c r="C6">
+        <v>0.1151158625519618</v>
+      </c>
+      <c r="D6">
+        <v>0.02978706150087384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002165871920046886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.00479618545105532</v>
+      </c>
+      <c r="C7">
+        <v>0.05809422635043076</v>
+      </c>
+      <c r="D7">
+        <v>0.0311041270867798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0001153628195526361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005959938650647829</v>
+      </c>
+      <c r="C8">
+        <v>0.0366907294602291</v>
+      </c>
+      <c r="D8">
+        <v>0.03902319373176531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003799191053682766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005167496455272699</v>
+      </c>
+      <c r="C9">
+        <v>0.07126195664183928</v>
+      </c>
+      <c r="D9">
+        <v>0.074270309661245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001733903514290041</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005767545671944374</v>
+      </c>
+      <c r="C10">
+        <v>0.0555588956674077</v>
+      </c>
+      <c r="D10">
+        <v>-0.1977020605066483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004356382692367361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005625959859954206</v>
+      </c>
+      <c r="C11">
+        <v>0.0797477433813697</v>
+      </c>
+      <c r="D11">
+        <v>0.06337602464522718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001516648873398055</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003997921491674349</v>
+      </c>
+      <c r="C12">
+        <v>0.06401745144065442</v>
+      </c>
+      <c r="D12">
+        <v>0.04959545127303354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001817787606582386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009052675467725221</v>
+      </c>
+      <c r="C13">
+        <v>0.06991228653809399</v>
+      </c>
+      <c r="D13">
+        <v>0.05641793196772907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002207594413125206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001118060009433286</v>
+      </c>
+      <c r="C14">
+        <v>0.04406498111415458</v>
+      </c>
+      <c r="D14">
+        <v>0.006003705458170899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.000767057542935719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006027258345272102</v>
+      </c>
+      <c r="C15">
+        <v>0.04144122124937665</v>
+      </c>
+      <c r="D15">
+        <v>0.02884722300111201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.002308937715306193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004964619621357268</v>
+      </c>
+      <c r="C16">
+        <v>0.063997385036323</v>
+      </c>
+      <c r="D16">
+        <v>0.05437395588881647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0005004079400247859</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008793549315353168</v>
+      </c>
+      <c r="C20">
+        <v>0.06581983335722631</v>
+      </c>
+      <c r="D20">
+        <v>0.04500614479397448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005777797797467254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00985225141083494</v>
+      </c>
+      <c r="C21">
+        <v>0.02108710742254974</v>
+      </c>
+      <c r="D21">
+        <v>0.03923780881155312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01700794056261472</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006142779833226013</v>
+      </c>
+      <c r="C22">
+        <v>0.0925381818372118</v>
+      </c>
+      <c r="D22">
+        <v>0.120704255135012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01732581861659455</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.005947309728639149</v>
+      </c>
+      <c r="C23">
+        <v>0.0932994989225759</v>
+      </c>
+      <c r="D23">
+        <v>0.1206934676934331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.00354736144288215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005508340606369351</v>
+      </c>
+      <c r="C24">
+        <v>0.07575075746592588</v>
+      </c>
+      <c r="D24">
+        <v>0.06697964510424265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005743510537652528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003246826775776967</v>
+      </c>
+      <c r="C25">
+        <v>0.07813346368900334</v>
+      </c>
+      <c r="D25">
+        <v>0.06471048448688037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003997806879560853</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003633771982009668</v>
+      </c>
+      <c r="C26">
+        <v>0.03902379506676137</v>
+      </c>
+      <c r="D26">
+        <v>0.02407331980147779</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007697415037968786</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0008888219042189959</v>
+      </c>
+      <c r="C28">
+        <v>0.1045345071413527</v>
+      </c>
+      <c r="D28">
+        <v>-0.3237782364014204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001225788220928282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002843962881885574</v>
+      </c>
+      <c r="C29">
+        <v>0.04967999136328383</v>
+      </c>
+      <c r="D29">
+        <v>0.006544649340444452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.0050493432402683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.01027421781699911</v>
+      </c>
+      <c r="C30">
+        <v>0.1431170834688705</v>
+      </c>
+      <c r="D30">
+        <v>0.1060726638769145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0001420959273770843</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006487435625309943</v>
+      </c>
+      <c r="C31">
+        <v>0.0444533440659982</v>
+      </c>
+      <c r="D31">
+        <v>0.03031519781391099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008377821325956288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003641022279960946</v>
+      </c>
+      <c r="C32">
+        <v>0.0398662823038995</v>
+      </c>
+      <c r="D32">
+        <v>0.02503152468786348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0035574048042779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008703979834512363</v>
+      </c>
+      <c r="C33">
+        <v>0.08695611446046096</v>
+      </c>
+      <c r="D33">
+        <v>0.06598340499378887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005131175510522223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004107001944890686</v>
+      </c>
+      <c r="C34">
+        <v>0.05797177730986285</v>
+      </c>
+      <c r="D34">
+        <v>0.05607252654162093</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0004651236295831763</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005199545390635955</v>
+      </c>
+      <c r="C35">
+        <v>0.04092208086144532</v>
+      </c>
+      <c r="D35">
+        <v>0.01872654655762302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004481116950037603</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001014922432324817</v>
+      </c>
+      <c r="C36">
+        <v>0.02509855091142657</v>
+      </c>
+      <c r="D36">
+        <v>0.0238127592142065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001202428347304786</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008965764991931607</v>
+      </c>
+      <c r="C38">
+        <v>0.03518255583152687</v>
+      </c>
+      <c r="D38">
+        <v>0.01664176431331233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01334367137141881</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0008060915592459107</v>
+      </c>
+      <c r="C39">
+        <v>0.1153979734512584</v>
+      </c>
+      <c r="D39">
+        <v>0.07859891951122713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009384745129993401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003690872613767839</v>
+      </c>
+      <c r="C40">
+        <v>0.0907314831855864</v>
+      </c>
+      <c r="D40">
+        <v>0.01304118623819315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009223410532213147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007051580069493911</v>
+      </c>
+      <c r="C41">
+        <v>0.03657323336483413</v>
+      </c>
+      <c r="D41">
+        <v>0.03771435651134624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003750121246510341</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003920819801756678</v>
+      </c>
+      <c r="C43">
+        <v>0.05287911654008361</v>
+      </c>
+      <c r="D43">
+        <v>0.02605872755199331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.01570431187453837</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.00313706886458184</v>
+      </c>
+      <c r="C44">
+        <v>0.1073130286990484</v>
+      </c>
+      <c r="D44">
+        <v>0.06653908801220251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0007052538506982052</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002262801168913246</v>
+      </c>
+      <c r="C46">
+        <v>0.03312063583811655</v>
+      </c>
+      <c r="D46">
+        <v>0.03281983192504057</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.001941571444321464</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002393131694846792</v>
+      </c>
+      <c r="C47">
+        <v>0.03662907569431763</v>
+      </c>
+      <c r="D47">
+        <v>0.02022448264934012</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004113193855113989</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006840859793451169</v>
+      </c>
+      <c r="C48">
+        <v>0.03069510516486938</v>
+      </c>
+      <c r="D48">
+        <v>0.0356665310132847</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01266185684403182</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01679403378570117</v>
+      </c>
+      <c r="C49">
+        <v>0.1864081271937466</v>
+      </c>
+      <c r="D49">
+        <v>0.01258288237654574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001863949454052006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003765347359414796</v>
+      </c>
+      <c r="C50">
+        <v>0.04306387901595426</v>
+      </c>
+      <c r="D50">
+        <v>0.03711929976733801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-1.901282753622272e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004765200161941356</v>
+      </c>
+      <c r="C51">
+        <v>0.02539188268714421</v>
+      </c>
+      <c r="D51">
+        <v>0.02152298119422135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007372687235315669</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02127706687605406</v>
+      </c>
+      <c r="C53">
+        <v>0.1696965011966358</v>
+      </c>
+      <c r="D53">
+        <v>0.02650123660252806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001749391775042015</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008986872406343079</v>
+      </c>
+      <c r="C54">
+        <v>0.05474381978315998</v>
+      </c>
+      <c r="D54">
+        <v>0.04529364613139489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005586814517403032</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009667763181093648</v>
+      </c>
+      <c r="C55">
+        <v>0.1093709627516046</v>
+      </c>
+      <c r="D55">
+        <v>0.03898598804291573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.001420944358591998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02036496420395204</v>
+      </c>
+      <c r="C56">
+        <v>0.1762784264425108</v>
+      </c>
+      <c r="D56">
+        <v>0.0146800011566288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00968738664028604</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01971488622247123</v>
+      </c>
+      <c r="C58">
+        <v>0.10984675818856</v>
+      </c>
+      <c r="D58">
+        <v>0.06420852750986533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009629883606440435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01012215343867704</v>
+      </c>
+      <c r="C59">
+        <v>0.1628117289842669</v>
+      </c>
+      <c r="D59">
+        <v>-0.3339207487600722</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005628391152914062</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.0255505989671479</v>
+      </c>
+      <c r="C60">
+        <v>0.2255192950520531</v>
+      </c>
+      <c r="D60">
+        <v>0.02390177173564643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01524061285409525</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001732222949073309</v>
+      </c>
+      <c r="C61">
+        <v>0.09492780421867689</v>
+      </c>
+      <c r="D61">
+        <v>0.05635261717082812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1586439937015001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1482848893073024</v>
+      </c>
+      <c r="C62">
+        <v>0.09524641770286875</v>
+      </c>
+      <c r="D62">
+        <v>0.02923441002465992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.000625341267927527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006704899685774682</v>
+      </c>
+      <c r="C63">
+        <v>0.0542600246893115</v>
+      </c>
+      <c r="D63">
+        <v>0.02748217326591323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.000750237489819569</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01557237743746189</v>
+      </c>
+      <c r="C64">
+        <v>0.1035802328712369</v>
+      </c>
+      <c r="D64">
+        <v>0.0608042435593342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.001785142259866666</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01806838606269803</v>
+      </c>
+      <c r="C65">
+        <v>0.1234957015378009</v>
+      </c>
+      <c r="D65">
+        <v>0.0207530707007367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007506577476712809</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01358064144404971</v>
+      </c>
+      <c r="C66">
+        <v>0.1598190465032575</v>
+      </c>
+      <c r="D66">
+        <v>0.1122221444168859</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003014517268020445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01550876442175557</v>
+      </c>
+      <c r="C67">
+        <v>0.06641276268830684</v>
+      </c>
+      <c r="D67">
+        <v>0.02857424462418754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007582137425005515</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0009629752671856605</v>
+      </c>
+      <c r="C68">
+        <v>0.08459972562904963</v>
+      </c>
+      <c r="D68">
+        <v>-0.263587946602621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.00231542316186464</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006077795197567753</v>
+      </c>
+      <c r="C69">
+        <v>0.05061995789677668</v>
+      </c>
+      <c r="D69">
+        <v>0.03774743680315998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0001100084650374569</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001828829371988313</v>
+      </c>
+      <c r="C70">
+        <v>0.003623698136890879</v>
+      </c>
+      <c r="D70">
+        <v>0.002921558375263162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001831037681565602</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005824228166714502</v>
+      </c>
+      <c r="C71">
+        <v>0.09163149385991949</v>
+      </c>
+      <c r="D71">
+        <v>-0.3045547486577978</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005616531161649231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01667900670100437</v>
+      </c>
+      <c r="C72">
+        <v>0.153009004825743</v>
+      </c>
+      <c r="D72">
+        <v>0.01221773819489666</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01563026370887541</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03191563071657463</v>
+      </c>
+      <c r="C73">
+        <v>0.282737635054184</v>
+      </c>
+      <c r="D73">
+        <v>0.05574487484429488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.007194684363293306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002124411570220728</v>
+      </c>
+      <c r="C74">
+        <v>0.1032086195634441</v>
+      </c>
+      <c r="D74">
+        <v>0.03519767683294402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004031365403236268</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01155622746261964</v>
+      </c>
+      <c r="C75">
+        <v>0.1228195890448237</v>
+      </c>
+      <c r="D75">
+        <v>0.0244389207194855</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005467510671214265</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02279328421127844</v>
+      </c>
+      <c r="C76">
+        <v>0.1489116928687152</v>
+      </c>
+      <c r="D76">
+        <v>0.05420785248085475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003659806968994581</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02313868381911248</v>
+      </c>
+      <c r="C77">
+        <v>0.1165002548239992</v>
+      </c>
+      <c r="D77">
+        <v>0.06533181359545658</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0003406589674499959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01524204725597458</v>
+      </c>
+      <c r="C78">
+        <v>0.09672735533941795</v>
+      </c>
+      <c r="D78">
+        <v>0.07500917186768401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02147224095915579</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03839024361872978</v>
+      </c>
+      <c r="C79">
+        <v>0.1570655564836194</v>
+      </c>
+      <c r="D79">
+        <v>0.03129654412756339</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005345938753441067</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01020916086430349</v>
+      </c>
+      <c r="C80">
+        <v>0.03984490089575662</v>
+      </c>
+      <c r="D80">
+        <v>0.03088784684522807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0007184494889031521</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01577208683791549</v>
+      </c>
+      <c r="C81">
+        <v>0.1293531824867297</v>
+      </c>
+      <c r="D81">
+        <v>0.03663274442588296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002174424392884715</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02031840869217169</v>
+      </c>
+      <c r="C82">
+        <v>0.1391478432423343</v>
+      </c>
+      <c r="D82">
+        <v>0.04120456211792362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.006055866093342666</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01065870004345449</v>
+      </c>
+      <c r="C83">
+        <v>0.05893805409945546</v>
+      </c>
+      <c r="D83">
+        <v>0.04809727376617336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01275166054057539</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01173940840904795</v>
+      </c>
+      <c r="C84">
+        <v>0.03734049339883592</v>
+      </c>
+      <c r="D84">
+        <v>-0.000711021186010851</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01280139769612176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02932352701865748</v>
+      </c>
+      <c r="C85">
+        <v>0.1251399264348673</v>
+      </c>
+      <c r="D85">
+        <v>0.03926840352565072</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002580838659351409</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004760763830153334</v>
+      </c>
+      <c r="C86">
+        <v>0.05014835416745387</v>
+      </c>
+      <c r="D86">
+        <v>0.03140271588514167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004218978042249906</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01104590927792135</v>
+      </c>
+      <c r="C87">
+        <v>0.1283129216610698</v>
+      </c>
+      <c r="D87">
+        <v>0.06835307453608004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01156550196275245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002722022022571796</v>
+      </c>
+      <c r="C88">
+        <v>0.06310752760252877</v>
+      </c>
+      <c r="D88">
+        <v>0.02253694731769591</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01554049177103569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001428128952488481</v>
+      </c>
+      <c r="C89">
+        <v>0.1390930650038807</v>
+      </c>
+      <c r="D89">
+        <v>-0.3195335262257073</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003972349404644414</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006838009955044621</v>
+      </c>
+      <c r="C90">
+        <v>0.119285467677456</v>
+      </c>
+      <c r="D90">
+        <v>-0.3139934720461806</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001774672071438937</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01065785277876733</v>
+      </c>
+      <c r="C91">
+        <v>0.1004884315648748</v>
+      </c>
+      <c r="D91">
+        <v>0.0218347417227114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01125253539713445</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001139029634571488</v>
+      </c>
+      <c r="C92">
+        <v>0.1349542835727477</v>
+      </c>
+      <c r="D92">
+        <v>-0.3255722742497673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002643200538840247</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005158420709600184</v>
+      </c>
+      <c r="C93">
+        <v>0.1042467677236493</v>
+      </c>
+      <c r="D93">
+        <v>-0.3025029645373079</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0002398450192015496</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.0225097421081347</v>
+      </c>
+      <c r="C94">
+        <v>0.1462029247554954</v>
+      </c>
+      <c r="D94">
+        <v>0.04921959969852769</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.002997476233197546</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01716735715425645</v>
+      </c>
+      <c r="C95">
+        <v>0.1228395169843329</v>
+      </c>
+      <c r="D95">
+        <v>0.06188306399656032</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001110241667524055</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03647904514896567</v>
+      </c>
+      <c r="C97">
+        <v>0.2191188206226793</v>
+      </c>
+      <c r="D97">
+        <v>-0.01230739574197987</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.004054901275991135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03820281286765554</v>
+      </c>
+      <c r="C98">
+        <v>0.2531770425963518</v>
+      </c>
+      <c r="D98">
+        <v>0.04071387976665226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9852798711230198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813143153168674</v>
+      </c>
+      <c r="C99">
+        <v>-0.1208684018408632</v>
+      </c>
+      <c r="D99">
+        <v>-0.02425681929848543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001143668350125229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002884861737034717</v>
+      </c>
+      <c r="C101">
+        <v>0.04981686692325855</v>
+      </c>
+      <c r="D101">
+        <v>0.006929398286533659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
